--- a/BackTest/2020-01-22 BackTest EOS.xlsx
+++ b/BackTest/2020-01-22 BackTest EOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1210,11 +1210,17 @@
         <v>20315.8696609</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4154</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1249,17 @@
         <v>19694.9003609</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4164</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1292,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1329,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1366,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1403,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1440,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1477,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1514,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1551,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1588,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1625,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1662,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1699,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1736,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1773,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1810,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1847,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1884,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +1921,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +1958,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +1995,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2032,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2069,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2106,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2143,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2180,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2217,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2254,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2291,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2328,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2365,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2402,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2439,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2476,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2513,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2550,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2587,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2624,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2661,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2698,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2735,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2772,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2809,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2846,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2883,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +2920,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +2957,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +2994,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3031,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3068,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3105,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3142,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3179,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3216,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3253,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3290,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3327,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3364,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3401,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3438,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3475,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3512,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3545,17 @@
         <v>29769.66920987001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>4132</v>
+      </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3584,17 @@
         <v>31872.13462376001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>4142</v>
+      </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3627,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3664,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3701,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3738,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3775,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3812,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3849,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3886,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +3923,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3956,17 @@
         <v>26181.61312376001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>4143</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3995,17 @@
         <v>26181.75442376001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>4138</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +4038,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4075,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4112,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4149,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4186,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4223,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4260,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4297,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4334,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4371,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4408,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4445,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4482,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4519,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4556,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4593,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4630,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4667,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4704,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4741,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4778,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4815,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4852,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4889,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +4926,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +4963,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +5000,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +5037,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +5074,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +5111,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +5148,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +5185,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +5222,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +5259,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +5296,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5333,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5370,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5407,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5444,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5481,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5518,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5555,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5592,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5629,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5666,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5703,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5740,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5777,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5814,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5851,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5888,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +5925,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +5962,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +5999,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +6036,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +6073,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +6110,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +6147,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +6184,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +6221,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +6258,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5735,7 +6295,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +6332,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +6369,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5834,7 +6406,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +6443,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +6480,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +6517,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5966,7 +6554,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6591,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +6628,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6065,7 +6665,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6098,7 +6702,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6131,7 +6739,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6776,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6197,7 +6813,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +6850,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6263,7 +6887,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6296,7 +6924,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6329,7 +6961,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6362,7 +6998,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6395,7 +7035,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6428,7 +7072,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6461,7 +7109,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6494,7 +7146,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +7183,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +7220,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +7257,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +7294,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6659,7 +7331,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6692,7 +7368,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6725,7 +7405,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +7442,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +7479,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +7516,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6857,7 +7553,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6890,7 +7590,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6923,7 +7627,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6956,7 +7664,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6989,7 +7701,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7022,7 +7738,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +7775,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +7812,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +7849,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7886,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7187,7 +7923,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +7960,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7253,7 +7997,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7286,7 +8034,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +8071,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7352,7 +8108,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7385,7 +8145,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +8182,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +8219,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +8256,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +8293,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +8330,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +8367,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +8404,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +8441,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +8478,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +8515,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +8552,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +8589,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +8626,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +8663,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +8700,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8737,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8774,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8811,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8848,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8885,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8922,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8959,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8996,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +9033,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +9070,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8243,7 +9107,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8276,7 +9144,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8309,7 +9181,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8342,7 +9218,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8375,7 +9255,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8408,7 +9292,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8441,7 +9329,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +9366,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8507,7 +9403,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8540,7 +9440,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8573,7 +9477,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8606,7 +9514,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8639,7 +9551,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8672,7 +9588,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8705,7 +9625,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8738,7 +9662,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8771,7 +9699,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8804,7 +9736,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8837,7 +9773,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +9810,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +9847,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8936,7 +9884,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +9921,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +9958,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9035,7 +9995,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +10032,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9101,7 +10069,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9134,7 +10106,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9167,7 +10143,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9200,7 +10180,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +10217,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9266,7 +10254,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9299,7 +10291,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9332,7 +10328,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9365,7 +10365,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9398,7 +10402,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9431,7 +10439,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9464,7 +10476,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9497,7 +10513,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9530,7 +10550,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9563,7 +10587,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9596,7 +10624,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9629,7 +10661,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9662,7 +10698,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9695,7 +10735,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9728,7 +10772,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9761,7 +10809,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9794,7 +10846,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9827,7 +10883,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9860,7 +10920,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9893,7 +10957,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9926,7 +10994,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9959,7 +11031,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9992,7 +11068,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10025,7 +11105,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10058,7 +11142,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10091,7 +11179,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10124,7 +11216,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10157,7 +11253,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10190,7 +11290,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10223,7 +11327,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10256,7 +11364,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10289,7 +11401,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10322,7 +11438,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10355,7 +11475,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10388,7 +11512,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10421,7 +11549,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10454,7 +11586,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10487,7 +11623,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10520,7 +11660,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10553,7 +11697,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10586,7 +11734,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10619,7 +11771,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10652,7 +11808,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10681,11 +11841,17 @@
         <v>47514.59736364998</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>4154</v>
+      </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10714,11 +11880,17 @@
         <v>46791.12076364998</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>4154</v>
+      </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10747,11 +11919,17 @@
         <v>39948.13696364998</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>4145</v>
+      </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10780,11 +11958,17 @@
         <v>41394.08686364998</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>4140</v>
+      </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10813,11 +11997,17 @@
         <v>42225.21536364998</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>4144</v>
+      </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10846,11 +12036,17 @@
         <v>42210.36556364998</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>4153</v>
+      </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10879,11 +12075,17 @@
         <v>41908.04036364998</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>4150</v>
+      </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10912,11 +12114,17 @@
         <v>46713.12586364998</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>4141</v>
+      </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10945,11 +12153,17 @@
         <v>46713.12586364998</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>4145</v>
+      </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10982,7 +12196,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +12233,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11048,7 +12270,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +12307,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +12344,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +12381,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11180,7 +12418,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11209,11 +12451,17 @@
         <v>48707.34984699997</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>4142</v>
+      </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11246,7 +12494,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11275,11 +12527,17 @@
         <v>48364.97614699997</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>4140</v>
+      </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +12570,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11345,7 +12607,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +12644,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11411,7 +12681,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11444,7 +12718,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11477,7 +12755,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11510,7 +12792,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11543,7 +12829,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11576,7 +12866,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11609,7 +12903,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11642,7 +12940,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11675,7 +12977,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11708,7 +13014,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11741,7 +13051,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11774,7 +13088,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11807,7 +13125,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11840,7 +13162,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11873,7 +13199,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11906,7 +13236,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11939,7 +13273,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11972,7 +13310,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12005,7 +13347,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12038,7 +13384,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12071,7 +13421,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12104,7 +13458,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12137,7 +13495,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12170,7 +13532,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12203,7 +13569,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12236,7 +13606,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12269,7 +13643,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12302,7 +13680,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12331,11 +13713,17 @@
         <v>38913.29481222997</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>4106</v>
+      </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12364,11 +13752,17 @@
         <v>38914.37345299997</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>4116</v>
+      </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12397,11 +13791,17 @@
         <v>35867.84615299997</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>4120</v>
+      </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12430,11 +13830,17 @@
         <v>35936.50187516997</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>4115</v>
+      </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12467,7 +13873,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12500,7 +13910,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12533,7 +13947,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12562,11 +13980,17 @@
         <v>34783.33077516997</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>4117</v>
+      </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12595,11 +14019,17 @@
         <v>34753.33077516997</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>4117</v>
+      </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12628,11 +14058,17 @@
         <v>34773.51397516997</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>4112</v>
+      </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12661,11 +14097,17 @@
         <v>34773.51397516997</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>4119</v>
+      </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12694,11 +14136,17 @@
         <v>26007.01207516997</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>4119</v>
+      </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12727,11 +14175,17 @@
         <v>26095.20917516997</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>4104</v>
+      </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12760,11 +14214,17 @@
         <v>26095.20917516997</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>4105</v>
+      </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12793,11 +14253,17 @@
         <v>27928.97557516997</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>4105</v>
+      </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12826,11 +14292,17 @@
         <v>21382.15117516997</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>4106</v>
+      </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12859,11 +14331,17 @@
         <v>21382.15117516997</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>4103</v>
+      </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12892,11 +14370,17 @@
         <v>19332.15117516997</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>4103</v>
+      </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12925,11 +14409,17 @@
         <v>11291.12877516997</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>4102</v>
+      </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12958,11 +14448,17 @@
         <v>8665.045475169969</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>4096</v>
+      </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12991,11 +14487,17 @@
         <v>11575.60187516997</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>4095</v>
+      </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13024,11 +14526,17 @@
         <v>12749.46177516997</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>4103</v>
+      </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13057,11 +14565,17 @@
         <v>11908.01157516997</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>4105</v>
+      </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13090,11 +14604,17 @@
         <v>12825.53627516997</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>4101</v>
+      </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13123,11 +14643,17 @@
         <v>12870.04637516997</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>4115</v>
+      </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13156,11 +14682,17 @@
         <v>8832.070775169968</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>4119</v>
+      </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13189,11 +14721,17 @@
         <v>3188.450075169968</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>4115</v>
+      </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13226,7 +14764,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13259,7 +14801,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13292,7 +14838,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13325,7 +14875,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13358,7 +14912,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13391,7 +14949,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13424,7 +14986,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13457,7 +15023,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13490,7 +15060,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13523,7 +15097,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13556,7 +15134,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13585,11 +15167,17 @@
         <v>-18148.00992483003</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>4104</v>
+      </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13618,11 +15206,17 @@
         <v>-17270.98232483003</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>4100</v>
+      </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13651,11 +15245,17 @@
         <v>-15463.26072483003</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>4105</v>
+      </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +15284,17 @@
         <v>-16575.03662483003</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>4112</v>
+      </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13717,11 +15323,17 @@
         <v>-16575.03662483003</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>4106</v>
+      </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13750,11 +15362,17 @@
         <v>-16636.01152483003</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>4106</v>
+      </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13783,11 +15401,17 @@
         <v>-18151.55922483003</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>4099</v>
+      </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13816,7 +15440,7 @@
         <v>-17271.59382483003</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407" t="n">
         <v>4098</v>
@@ -13824,7 +15448,7 @@
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L407" t="n">
@@ -13855,7 +15479,7 @@
         <v>-14067.48272483003</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I408" t="n">
         <v>4100</v>
@@ -13894,7 +15518,7 @@
         <v>-14507.66222483003</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>4104</v>
@@ -13933,7 +15557,7 @@
         <v>-11950.49392483003</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>4103</v>
@@ -13972,7 +15596,7 @@
         <v>-11950.49392483003</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>4110</v>
@@ -14011,7 +15635,7 @@
         <v>-11546.54572483003</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>4110</v>
@@ -14050,11 +15674,9 @@
         <v>-11332.09182483003</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
-      </c>
-      <c r="I413" t="n">
-        <v>4118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
@@ -14237,11 +15859,9 @@
         <v>-12317.43982483003</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
-      </c>
-      <c r="I418" t="n">
-        <v>4119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
@@ -14276,11 +15896,9 @@
         <v>-12313.51982483003</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
-      </c>
-      <c r="I419" t="n">
-        <v>4119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
@@ -14315,11 +15933,9 @@
         <v>-15035.31642483003</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
-      </c>
-      <c r="I420" t="n">
-        <v>4122</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
@@ -14576,11 +16192,9 @@
         <v>-14386.85942483003</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
-      </c>
-      <c r="I427" t="n">
-        <v>4117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
@@ -14615,11 +16229,9 @@
         <v>-14386.85942483003</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
-      </c>
-      <c r="I428" t="n">
-        <v>4116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
@@ -14654,11 +16266,9 @@
         <v>-14454.60412483003</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
-      </c>
-      <c r="I429" t="n">
-        <v>4116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
@@ -14693,11 +16303,9 @@
         <v>-14485.60572483003</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
-      </c>
-      <c r="I430" t="n">
-        <v>4115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
@@ -14732,11 +16340,9 @@
         <v>-13785.60572483003</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
-      </c>
-      <c r="I431" t="n">
-        <v>4111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
@@ -14993,11 +16599,9 @@
         <v>-12388.72492483003</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
-      </c>
-      <c r="I438" t="n">
-        <v>4120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
@@ -15069,11 +16673,9 @@
         <v>-12388.72492483003</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
-      </c>
-      <c r="I440" t="n">
-        <v>4120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
@@ -15478,11 +17080,9 @@
         <v>-13160.18181923003</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
-      </c>
-      <c r="I451" t="n">
-        <v>4131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -15628,11 +17228,9 @@
         <v>-16526.85001923003</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
-      </c>
-      <c r="I455" t="n">
-        <v>4130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
@@ -16629,11 +18227,9 @@
         <v>-7646.720381420028</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
-      </c>
-      <c r="I482" t="n">
-        <v>4150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
@@ -20109,16 +21705,18 @@
         <v>2524137.017411751</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L576" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L576" t="n">
+        <v>1</v>
+      </c>
       <c r="M576" t="inlineStr"/>
     </row>
     <row r="577">
@@ -20144,11 +21742,15 @@
         <v>2524137.017411751</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20177,11 +21779,15 @@
         <v>2529149.190811751</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20210,11 +21816,15 @@
         <v>2527569.125311751</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20243,11 +21853,15 @@
         <v>2529204.291011751</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20276,11 +21890,15 @@
         <v>2528104.291011751</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20309,11 +21927,15 @@
         <v>2527039.541111751</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20342,11 +21964,15 @@
         <v>2531109.913118921</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20375,11 +22001,15 @@
         <v>2531109.913118921</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20408,11 +22038,15 @@
         <v>2532313.422593681</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20441,11 +22075,15 @@
         <v>2529128.90899368</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20474,11 +22112,15 @@
         <v>2528819.713993681</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20507,11 +22149,15 @@
         <v>2528819.713993681</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20540,11 +22186,15 @@
         <v>2528819.713993681</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20573,11 +22223,15 @@
         <v>2526887.552293681</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20606,11 +22260,15 @@
         <v>2527083.975493681</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20639,11 +22297,15 @@
         <v>2527033.34239368</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20676,7 +22338,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20709,7 +22375,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20738,11 +22408,15 @@
         <v>2528627.88799368</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20771,11 +22445,15 @@
         <v>2528615.98679368</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20804,11 +22482,15 @@
         <v>2528615.98679368</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20841,7 +22523,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20870,11 +22556,15 @@
         <v>2528219.16149368</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20903,11 +22593,15 @@
         <v>2528430.22819368</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20940,7 +22634,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20973,7 +22671,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21006,7 +22708,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21039,7 +22745,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21072,7 +22782,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21105,7 +22819,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21138,7 +22856,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21171,7 +22893,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21204,7 +22930,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21237,7 +22967,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21270,7 +23004,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21303,7 +23041,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21336,7 +23078,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21369,7 +23115,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21402,7 +23152,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21435,7 +23189,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21468,7 +23226,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21501,7 +23263,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21534,7 +23300,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21567,7 +23337,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21600,7 +23374,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21633,7 +23411,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21666,7 +23448,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21699,7 +23485,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21732,7 +23522,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21765,7 +23559,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21798,7 +23596,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21831,7 +23633,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21864,7 +23670,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21897,7 +23707,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21930,7 +23744,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21963,7 +23781,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21996,7 +23818,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22029,7 +23855,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22062,7 +23892,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22095,7 +23929,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22128,7 +23966,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22161,7 +24003,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22194,7 +24040,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22227,7 +24077,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22260,7 +24114,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22293,7 +24151,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22326,7 +24188,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22359,7 +24225,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22392,7 +24262,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22425,7 +24299,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22458,7 +24336,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22491,7 +24373,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22524,7 +24410,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22557,7 +24447,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22590,7 +24484,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22623,7 +24521,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22656,7 +24558,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22689,7 +24595,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22722,7 +24632,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22755,7 +24669,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22788,7 +24706,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22821,7 +24743,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22854,7 +24780,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22887,7 +24817,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22920,7 +24854,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22953,7 +24891,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22986,7 +24928,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23019,7 +24965,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23052,7 +25002,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23085,7 +25039,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23118,7 +25076,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23151,7 +25113,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23184,7 +25150,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23217,7 +25187,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23250,7 +25224,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23283,7 +25261,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23316,7 +25298,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23349,7 +25335,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23382,7 +25372,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23415,7 +25409,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23448,7 +25446,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23481,7 +25483,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23514,7 +25520,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23547,7 +25557,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23580,7 +25594,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23613,7 +25631,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23646,7 +25668,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23679,7 +25705,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23712,7 +25742,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23745,7 +25779,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23778,7 +25816,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23811,7 +25853,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23844,7 +25890,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23877,7 +25927,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23910,7 +25964,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23943,7 +26001,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23976,7 +26038,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24009,7 +26075,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24042,7 +26112,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24075,7 +26149,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24108,7 +26186,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24141,7 +26223,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24174,7 +26260,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24207,7 +26297,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24240,7 +26334,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24273,7 +26371,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24306,7 +26408,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24339,7 +26445,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24372,7 +26482,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24405,7 +26519,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24438,7 +26556,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24471,7 +26593,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24504,7 +26630,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24537,7 +26667,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24570,7 +26704,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24603,7 +26741,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24636,7 +26778,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24669,7 +26815,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24702,7 +26852,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24735,7 +26889,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24768,7 +26926,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24801,7 +26963,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24834,7 +27000,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24867,7 +27037,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24900,7 +27074,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24933,7 +27111,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24966,7 +27148,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24999,7 +27185,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25032,7 +27222,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25065,7 +27259,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25098,7 +27296,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25131,7 +27333,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25164,7 +27370,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25197,7 +27407,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25230,7 +27444,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25263,7 +27481,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25296,7 +27518,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25329,7 +27555,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25362,7 +27592,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25395,7 +27629,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25428,7 +27666,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25461,7 +27703,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25494,7 +27740,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25527,7 +27777,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25560,7 +27814,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25593,7 +27851,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25626,7 +27888,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25659,7 +27925,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25692,7 +27962,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25725,7 +27999,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25758,7 +28036,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25791,7 +28073,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25824,7 +28110,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25857,7 +28147,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25890,7 +28184,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25923,7 +28221,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25956,7 +28258,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25989,7 +28295,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26022,7 +28332,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26055,7 +28369,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26088,7 +28406,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26121,7 +28443,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26154,7 +28480,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26187,7 +28517,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26220,7 +28554,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26253,7 +28591,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26286,7 +28628,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26319,7 +28665,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26352,7 +28702,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26385,7 +28739,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26418,7 +28776,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26451,7 +28813,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26484,7 +28850,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26517,7 +28887,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26550,7 +28924,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26583,7 +28961,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26616,7 +28998,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26649,7 +29035,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26682,7 +29072,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26715,7 +29109,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26748,7 +29146,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26781,7 +29183,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26814,7 +29220,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26847,7 +29257,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26880,7 +29294,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26913,7 +29331,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26946,7 +29368,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26979,7 +29405,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27012,7 +29442,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27045,7 +29479,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27078,7 +29516,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27111,7 +29553,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27144,7 +29590,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27177,7 +29627,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27210,7 +29664,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27243,7 +29701,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27276,7 +29738,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27309,7 +29775,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27338,11 +29808,15 @@
         <v>2539863.959402078</v>
       </c>
       <c r="H795" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27371,11 +29845,15 @@
         <v>2539693.959402078</v>
       </c>
       <c r="H796" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27404,11 +29882,15 @@
         <v>2539693.076002078</v>
       </c>
       <c r="H797" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27437,11 +29919,15 @@
         <v>2540068.374702078</v>
       </c>
       <c r="H798" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27470,11 +29956,15 @@
         <v>2541437.925702078</v>
       </c>
       <c r="H799" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27507,7 +29997,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27536,11 +30030,15 @@
         <v>2557327.310938978</v>
       </c>
       <c r="H801" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27573,7 +30071,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27602,11 +30104,15 @@
         <v>2551800.649238978</v>
       </c>
       <c r="H803" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27635,11 +30141,15 @@
         <v>2552775.467738978</v>
       </c>
       <c r="H804" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27668,11 +30178,15 @@
         <v>2551623.355338978</v>
       </c>
       <c r="H805" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27701,11 +30215,15 @@
         <v>2550300.656638978</v>
       </c>
       <c r="H806" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27734,11 +30252,15 @@
         <v>2550409.252138977</v>
       </c>
       <c r="H807" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27767,11 +30289,15 @@
         <v>2550409.252138977</v>
       </c>
       <c r="H808" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27800,11 +30326,15 @@
         <v>2550219.451438977</v>
       </c>
       <c r="H809" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27837,7 +30367,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27870,7 +30404,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27903,7 +30441,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27936,7 +30478,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27969,7 +30515,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -28002,7 +30552,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -28035,7 +30589,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28068,7 +30626,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -28097,11 +30659,15 @@
         <v>2560052.087120777</v>
       </c>
       <c r="H818" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -28134,7 +30700,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28163,14 +30733,16 @@
         <v>2554396.793820777</v>
       </c>
       <c r="H820" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
-      <c r="L820" t="n">
-        <v>1</v>
-      </c>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L820" t="inlineStr"/>
       <c r="M820" t="inlineStr"/>
     </row>
     <row r="821">
@@ -28196,7 +30768,7 @@
         <v>2556303.895620777</v>
       </c>
       <c r="H821" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -28229,7 +30801,7 @@
         <v>2555472.543020777</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -28262,7 +30834,7 @@
         <v>2554234.483320777</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -28295,7 +30867,7 @@
         <v>2543549.207320777</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -28328,7 +30900,7 @@
         <v>2547122.709220777</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -28361,7 +30933,7 @@
         <v>2546511.351520777</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -28394,7 +30966,7 @@
         <v>2549275.617020777</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -28427,7 +30999,7 @@
         <v>2548982.773320777</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -28460,7 +31032,7 @@
         <v>2549707.001320777</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -28493,7 +31065,7 @@
         <v>2549956.902520777</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -28559,7 +31131,7 @@
         <v>2546086.100920777</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -28955,7 +31527,7 @@
         <v>2546676.291328208</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -29648,7 +32220,7 @@
         <v>2537299.346463947</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -29681,7 +32253,7 @@
         <v>2537395.298063947</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -29714,7 +32286,7 @@
         <v>2537395.298063947</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29780,7 +32352,7 @@
         <v>2536998.413063947</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29846,7 +32418,7 @@
         <v>2542636.075163947</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -30539,7 +33111,7 @@
         <v>2545583.052368468</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -30572,7 +33144,7 @@
         <v>2545583.052368468</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -30605,7 +33177,7 @@
         <v>2545583.052368468</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -30638,7 +33210,7 @@
         <v>2546054.477068468</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -30671,7 +33243,7 @@
         <v>2546076.921068468</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -30704,7 +33276,7 @@
         <v>2544319.674868468</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30737,7 +33309,7 @@
         <v>2544461.729368468</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30770,7 +33342,7 @@
         <v>2543170.863068468</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30803,7 +33375,7 @@
         <v>2542452.349468468</v>
       </c>
       <c r="H900" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -31364,7 +33936,7 @@
         <v>2520411.916862828</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -31397,7 +33969,7 @@
         <v>2517127.234562828</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -31430,7 +34002,7 @@
         <v>2517621.515262828</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -31529,7 +34101,7 @@
         <v>2515906.903862827</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -31562,7 +34134,7 @@
         <v>2516722.376862828</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -31595,7 +34167,7 @@
         <v>2516685.243562828</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -31628,7 +34200,7 @@
         <v>2516905.052862828</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -32915,7 +35487,7 @@
         <v>2503998.777679416</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -32948,7 +35520,7 @@
         <v>2503914.900079417</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -32981,7 +35553,7 @@
         <v>2507856.968579417</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -33014,7 +35586,7 @@
         <v>2510338.971779417</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -33047,7 +35619,7 @@
         <v>2509380.809679417</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -33080,7 +35652,7 @@
         <v>2505266.199979417</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -33146,7 +35718,7 @@
         <v>2508423.837479417</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -33179,7 +35751,7 @@
         <v>2508423.837479417</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -33212,7 +35784,7 @@
         <v>2508423.837479417</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -33245,7 +35817,7 @@
         <v>2510815.784075277</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -33278,7 +35850,7 @@
         <v>2505542.915675277</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -33311,7 +35883,7 @@
         <v>2505548.240075277</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -33344,7 +35916,7 @@
         <v>2505548.240075277</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -34202,7 +36774,7 @@
         <v>2512085.499264657</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -34235,7 +36807,7 @@
         <v>2510655.436942326</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -34268,7 +36840,7 @@
         <v>2510715.436942326</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -34301,7 +36873,7 @@
         <v>2510727.447542327</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -34334,7 +36906,7 @@
         <v>2512322.033042327</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -34367,7 +36939,7 @@
         <v>2510980.674342326</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -35258,7 +37830,7 @@
         <v>2516370.942042327</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -35291,7 +37863,7 @@
         <v>2516197.250842327</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -35324,7 +37896,7 @@
         <v>2511853.404342327</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -35357,7 +37929,7 @@
         <v>2511873.738842327</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -35390,7 +37962,7 @@
         <v>2514418.580490357</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -35423,7 +37995,7 @@
         <v>2518934.712790357</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -35456,7 +38028,7 @@
         <v>2521028.759290357</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -35489,7 +38061,7 @@
         <v>2521028.759290357</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -35522,7 +38094,7 @@
         <v>2521028.759290357</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -35731,6 +38303,6 @@
       <c r="M1049" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest EOS.xlsx
+++ b/BackTest/2020-01-22 BackTest EOS.xlsx
@@ -4906,7 +4906,7 @@
         <v>35259.91162376</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>40061.23316364999</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>40139.74246364999</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -12760,17 +12760,11 @@
         <v>26095.20917516997</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>4105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12799,17 +12793,11 @@
         <v>27928.97557516997</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>4105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12838,17 +12826,11 @@
         <v>21382.15117516997</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>4106</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12877,17 +12859,11 @@
         <v>21382.15117516997</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>4103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12916,17 +12892,11 @@
         <v>19332.15117516997</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>4103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12955,17 +12925,11 @@
         <v>11291.12877516997</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>4102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12994,17 +12958,11 @@
         <v>8665.045475169969</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>4096</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13041,7 +12999,7 @@
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L382" t="n">
@@ -13746,9 +13704,11 @@
         <v>-17270.98232483003</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>4100</v>
+      </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
@@ -13783,9 +13743,11 @@
         <v>-15463.26072483003</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>4105</v>
+      </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
@@ -13820,9 +13782,11 @@
         <v>-16575.03662483003</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>4112</v>
+      </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
@@ -13857,9 +13821,11 @@
         <v>-16575.03662483003</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>4106</v>
+      </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
@@ -13894,9 +13860,11 @@
         <v>-16636.01152483003</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>4106</v>
+      </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
@@ -13931,9 +13899,11 @@
         <v>-18151.55922483003</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>4099</v>
+      </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
@@ -13968,9 +13938,11 @@
         <v>-17271.59382483003</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>4098</v>
+      </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
@@ -14005,9 +13977,11 @@
         <v>-14067.48272483003</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>4100</v>
+      </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
@@ -14042,9 +14016,11 @@
         <v>-14507.66222483003</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>4104</v>
+      </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
@@ -14079,9 +14055,11 @@
         <v>-11950.49392483003</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>4103</v>
+      </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
@@ -14116,9 +14094,11 @@
         <v>-11950.49392483003</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>4110</v>
+      </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
@@ -14153,9 +14133,11 @@
         <v>-11546.54572483003</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>4110</v>
+      </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
@@ -14190,9 +14172,11 @@
         <v>-11332.09182483003</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>4118</v>
+      </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
@@ -14856,9 +14840,11 @@
         <v>-13785.60572483003</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>4111</v>
+      </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
@@ -14967,9 +14953,11 @@
         <v>-11744.78232483003</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>4120</v>
+      </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
@@ -15448,16 +15436,18 @@
         <v>-10516.04242483003</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L447" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L447" t="n">
+        <v>1</v>
+      </c>
       <c r="M447" t="inlineStr"/>
     </row>
     <row r="448">
@@ -15483,11 +15473,15 @@
         <v>-10514.94111923003</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15516,11 +15510,15 @@
         <v>-13314.29511923003</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15549,11 +15547,15 @@
         <v>-13160.18181923003</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15582,11 +15584,15 @@
         <v>-13160.18181923003</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15615,11 +15621,15 @@
         <v>-12994.27481923003</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15648,11 +15658,15 @@
         <v>-13112.24811923003</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15681,11 +15695,15 @@
         <v>-16465.02651923003</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15714,11 +15732,15 @@
         <v>-16526.85001923003</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15747,11 +15769,15 @@
         <v>-16454.47411923003</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15780,11 +15806,15 @@
         <v>-16496.57231923003</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15813,11 +15843,15 @@
         <v>-14659.83081923003</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15850,7 +15884,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15883,7 +15921,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15916,7 +15958,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15949,7 +15995,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15982,7 +16032,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16015,7 +16069,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16048,7 +16106,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16081,7 +16143,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16110,11 +16176,15 @@
         <v>-8535.399455340028</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16143,11 +16213,15 @@
         <v>-8535.399455340028</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16176,11 +16250,15 @@
         <v>-7985.199455340028</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16209,11 +16287,15 @@
         <v>-7935.199455340028</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16242,11 +16324,15 @@
         <v>-3706.854755340029</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16275,11 +16361,15 @@
         <v>2224.765844659972</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16308,11 +16398,15 @@
         <v>1916.079044659972</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16341,11 +16435,15 @@
         <v>2435.603344659972</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16374,11 +16472,15 @@
         <v>2470.026244659972</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16407,11 +16509,15 @@
         <v>2701.679244659972</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16440,11 +16546,15 @@
         <v>1292.639888779972</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16473,11 +16583,15 @@
         <v>-854.1980814200285</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16506,11 +16620,15 @@
         <v>-874.1980814200285</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16539,11 +16657,15 @@
         <v>-568.8165814200286</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16572,11 +16694,15 @@
         <v>-7649.635481420029</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16609,7 +16735,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16642,7 +16772,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16675,7 +16809,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16708,7 +16846,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16741,7 +16883,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16774,7 +16920,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16807,7 +16957,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16840,7 +16994,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16873,7 +17031,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16906,7 +17068,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16939,7 +17105,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16972,7 +17142,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17005,7 +17179,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17038,7 +17216,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17071,7 +17253,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17104,7 +17290,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17137,7 +17327,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17170,7 +17364,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17203,7 +17401,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17236,7 +17438,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17269,7 +17475,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17302,7 +17512,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17335,7 +17549,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17368,7 +17586,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17401,7 +17623,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17434,7 +17660,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17467,7 +17697,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17500,7 +17734,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17533,7 +17771,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17566,7 +17808,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17599,7 +17845,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17632,7 +17882,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17665,7 +17919,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17698,7 +17956,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17731,7 +17993,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17764,7 +18030,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17797,7 +18067,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17830,7 +18104,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17863,7 +18141,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17896,7 +18178,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17929,7 +18215,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17962,7 +18252,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17995,7 +18289,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18028,7 +18326,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18061,7 +18363,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18094,7 +18400,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18127,7 +18437,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18160,7 +18474,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18193,7 +18511,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18226,7 +18548,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18259,7 +18585,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18292,7 +18622,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18325,7 +18659,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18358,7 +18696,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18391,7 +18733,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18424,7 +18770,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18457,7 +18807,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18490,7 +18844,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18523,7 +18881,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18556,7 +18918,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18589,7 +18955,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18622,7 +18992,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18655,7 +19029,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18684,11 +19062,15 @@
         <v>2527747.937168501</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18717,11 +19099,15 @@
         <v>2527747.937168501</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18750,11 +19136,15 @@
         <v>2527747.937168501</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18783,11 +19173,15 @@
         <v>2527747.937168501</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18820,7 +19214,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18853,7 +19251,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18886,7 +19288,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18919,7 +19325,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18952,7 +19362,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18985,7 +19399,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19018,7 +19436,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19051,7 +19473,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19084,7 +19510,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19117,7 +19547,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19150,7 +19584,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19183,7 +19621,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19216,7 +19658,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19249,7 +19695,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19282,7 +19732,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19315,7 +19769,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19348,7 +19806,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19381,7 +19843,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19414,7 +19880,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19447,7 +19917,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19480,7 +19954,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19513,7 +19991,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19546,7 +20028,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19579,7 +20065,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19612,7 +20102,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19645,7 +20139,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19678,7 +20176,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19711,7 +20213,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19740,11 +20246,15 @@
         <v>2524137.017411751</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19773,11 +20283,15 @@
         <v>2529149.190811751</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19810,7 +20324,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19843,7 +20361,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19876,7 +20398,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19909,7 +20435,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19942,7 +20472,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19975,7 +20509,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20008,7 +20546,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20037,11 +20579,15 @@
         <v>2529128.90899368</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20074,7 +20620,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20107,7 +20657,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20140,7 +20694,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20173,7 +20731,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20206,7 +20768,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20239,7 +20805,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20272,7 +20842,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20305,7 +20879,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20338,7 +20916,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20371,7 +20953,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20404,7 +20990,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20437,7 +21027,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20470,7 +21064,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20503,7 +21101,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20536,7 +21138,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20569,7 +21175,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20602,7 +21212,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20635,7 +21249,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20668,7 +21286,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20701,7 +21323,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20734,7 +21360,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20767,7 +21397,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20800,7 +21434,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20833,7 +21471,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20866,7 +21508,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20899,7 +21545,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20932,7 +21582,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20965,7 +21619,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20998,7 +21656,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21031,7 +21693,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21064,7 +21730,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21097,7 +21767,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21130,7 +21804,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21163,7 +21841,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21196,7 +21878,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21229,7 +21915,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21262,7 +21952,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21295,7 +21989,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21328,7 +22026,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21361,7 +22063,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21394,7 +22100,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21427,7 +22137,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21460,7 +22174,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21493,7 +22211,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21526,7 +22248,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21559,7 +22285,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21592,7 +22322,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21625,7 +22359,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21658,7 +22396,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21691,7 +22433,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21724,7 +22470,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21757,7 +22507,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21790,7 +22544,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21823,7 +22581,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21856,7 +22618,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21889,7 +22655,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21922,7 +22692,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21955,7 +22729,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21988,7 +22766,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22021,7 +22803,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22054,7 +22840,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22087,7 +22877,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22120,7 +22914,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22153,7 +22951,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22186,7 +22988,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22219,7 +23025,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22252,7 +23062,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22285,7 +23099,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22318,7 +23136,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22351,7 +23173,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22384,7 +23210,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22417,7 +23247,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22450,7 +23284,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22483,7 +23321,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22516,7 +23358,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22549,7 +23395,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22582,7 +23432,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22615,7 +23469,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22648,7 +23506,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22681,7 +23543,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22714,7 +23580,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22747,7 +23617,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22780,7 +23654,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22813,7 +23691,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22846,7 +23728,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22879,7 +23765,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22912,7 +23802,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22945,7 +23839,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22978,7 +23876,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23011,7 +23913,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23044,7 +23950,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23077,7 +23987,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23110,7 +24024,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23143,7 +24061,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23176,7 +24098,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23209,7 +24135,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23242,7 +24172,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23275,7 +24209,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23308,7 +24246,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23341,7 +24283,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23374,7 +24320,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23407,7 +24357,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23440,7 +24394,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23473,7 +24431,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23506,7 +24468,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23539,7 +24505,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23572,7 +24542,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23605,7 +24579,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23638,7 +24616,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23671,7 +24653,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23704,7 +24690,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23737,7 +24727,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23766,11 +24760,15 @@
         <v>2511427.833448817</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23799,11 +24797,15 @@
         <v>2511664.744048817</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23832,11 +24834,15 @@
         <v>2511464.744048817</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23865,11 +24871,15 @@
         <v>2511795.362048817</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23898,11 +24908,15 @@
         <v>2511658.229948817</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23935,7 +24949,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23968,7 +24986,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23997,11 +25019,15 @@
         <v>2512019.352148817</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24030,11 +25056,15 @@
         <v>2512019.352148817</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24063,11 +25093,15 @@
         <v>2512020.751548817</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24096,11 +25130,15 @@
         <v>2510996.522848817</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24129,11 +25167,15 @@
         <v>2510996.522848817</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24162,11 +25204,15 @@
         <v>2509440.612148817</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24195,11 +25241,15 @@
         <v>2509842.249948817</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24228,11 +25278,15 @@
         <v>2509664.820648817</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24261,11 +25315,15 @@
         <v>2510041.933648817</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24298,7 +25356,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24327,11 +25389,15 @@
         <v>2510522.837148817</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24360,11 +25426,15 @@
         <v>2510563.480048817</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24393,11 +25463,15 @@
         <v>2510562.749648817</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24426,11 +25500,15 @@
         <v>2513646.081348817</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24459,11 +25537,15 @@
         <v>2513647.767448817</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24492,11 +25574,15 @@
         <v>2513987.848848817</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24525,11 +25611,15 @@
         <v>2513985.895348818</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24558,11 +25648,15 @@
         <v>2513595.979648818</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24595,7 +25689,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24628,7 +25726,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24661,7 +25763,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24694,7 +25800,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24727,7 +25837,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24760,7 +25874,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24793,7 +25911,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24826,7 +25948,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24859,7 +25985,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24892,7 +26022,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24925,7 +26059,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24958,7 +26096,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24991,7 +26133,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25024,7 +26170,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25057,7 +26207,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25090,7 +26244,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25123,7 +26281,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25156,7 +26318,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25189,7 +26355,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25222,7 +26392,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25255,7 +26429,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25288,7 +26466,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25321,7 +26503,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25354,7 +26540,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25387,7 +26577,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25420,7 +26614,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25453,7 +26651,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25486,7 +26688,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25519,7 +26725,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25552,7 +26762,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25585,7 +26799,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25618,7 +26836,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25651,7 +26873,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25684,7 +26910,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25717,7 +26947,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25750,7 +26984,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25783,7 +27021,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25816,7 +27058,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25849,7 +27095,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25882,7 +27132,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25915,7 +27169,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25948,7 +27206,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25981,7 +27243,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26014,7 +27280,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26047,7 +27317,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26080,7 +27354,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26113,7 +27391,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26146,7 +27428,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26179,7 +27465,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26212,7 +27502,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26245,7 +27539,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26278,7 +27576,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26307,11 +27609,15 @@
         <v>2529739.304273438</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26340,11 +27646,15 @@
         <v>2532451.259873438</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26373,11 +27683,15 @@
         <v>2532319.212573437</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26406,11 +27720,15 @@
         <v>2533800.259073438</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26439,11 +27757,15 @@
         <v>2533613.811173438</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26472,11 +27794,15 @@
         <v>2530424.075173438</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26505,11 +27831,15 @@
         <v>2530424.075173438</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26538,11 +27868,15 @@
         <v>2530424.075173438</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26571,11 +27905,15 @@
         <v>2530424.075173438</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26604,11 +27942,15 @@
         <v>2530471.546873438</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26637,11 +27979,15 @@
         <v>2534305.842673438</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26670,11 +28016,15 @@
         <v>2534292.329073437</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26703,11 +28053,15 @@
         <v>2534292.595820128</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26736,11 +28090,15 @@
         <v>2534089.500802077</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26769,11 +28127,15 @@
         <v>2535829.016602078</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26802,11 +28164,15 @@
         <v>2535829.016602078</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26835,11 +28201,15 @@
         <v>2537904.048302078</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26868,11 +28238,15 @@
         <v>2537677.022402078</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26901,11 +28275,15 @@
         <v>2537790.658402078</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26934,11 +28312,15 @@
         <v>2539863.959402078</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26967,11 +28349,15 @@
         <v>2539693.959402078</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27000,11 +28386,15 @@
         <v>2539693.076002078</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27033,11 +28423,15 @@
         <v>2540068.374702078</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27066,11 +28460,15 @@
         <v>2541437.925702078</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27099,11 +28497,15 @@
         <v>2541437.925702078</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27132,11 +28534,15 @@
         <v>2557327.310938978</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27165,11 +28571,15 @@
         <v>2549032.223838978</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27198,14 +28608,16 @@
         <v>2551800.649238978</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
-      <c r="L803" t="n">
-        <v>1</v>
-      </c>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L803" t="inlineStr"/>
       <c r="M803" t="inlineStr"/>
     </row>
     <row r="804">
@@ -27231,7 +28643,7 @@
         <v>2552775.467738978</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -27264,7 +28676,7 @@
         <v>2551623.355338978</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -27297,7 +28709,7 @@
         <v>2550300.656638978</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27330,7 +28742,7 @@
         <v>2550409.252138977</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27363,7 +28775,7 @@
         <v>2550409.252138977</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27396,7 +28808,7 @@
         <v>2550219.451438977</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27429,7 +28841,7 @@
         <v>2549491.444338977</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27462,7 +28874,7 @@
         <v>2552945.504738977</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27495,7 +28907,7 @@
         <v>2552239.273738977</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27528,7 +28940,7 @@
         <v>2555238.355320777</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27561,7 +28973,7 @@
         <v>2555238.355320777</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27594,7 +29006,7 @@
         <v>2560242.393420777</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27627,7 +29039,7 @@
         <v>2560748.960820777</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27660,7 +29072,7 @@
         <v>2560052.087120777</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27693,7 +29105,7 @@
         <v>2560052.087120777</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27726,7 +29138,7 @@
         <v>2557744.819620777</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27792,7 +29204,7 @@
         <v>2556303.895620777</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27825,7 +29237,7 @@
         <v>2555472.543020777</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27858,7 +29270,7 @@
         <v>2554234.483320777</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27891,7 +29303,7 @@
         <v>2543549.207320777</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27924,7 +29336,7 @@
         <v>2547122.709220777</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27957,7 +29369,7 @@
         <v>2546511.351520777</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27990,7 +29402,7 @@
         <v>2549275.617020777</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -28023,7 +29435,7 @@
         <v>2548982.773320777</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -28056,7 +29468,7 @@
         <v>2549707.001320777</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -28155,7 +29567,7 @@
         <v>2546086.100920777</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -28221,7 +29633,7 @@
         <v>2546086.100920777</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -28320,7 +29732,7 @@
         <v>2548122.589720777</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28353,7 +29765,7 @@
         <v>2547110.613720777</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28386,7 +29798,7 @@
         <v>2548246.306120778</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -29574,7 +30986,7 @@
         <v>2546614.057663947</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29607,7 +31019,7 @@
         <v>2546627.980663947</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29640,7 +31052,7 @@
         <v>2546218.480663947</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29673,7 +31085,7 @@
         <v>2549602.398763947</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -29706,7 +31118,7 @@
         <v>2545283.110563947</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -29739,7 +31151,7 @@
         <v>2545283.110563947</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -29772,7 +31184,7 @@
         <v>2544767.987663948</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -29805,7 +31217,7 @@
         <v>2544640.385363948</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -29838,7 +31250,7 @@
         <v>2544640.385363948</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29871,7 +31283,7 @@
         <v>2544874.518340268</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -29904,7 +31316,7 @@
         <v>2538784.960140268</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -29937,7 +31349,7 @@
         <v>2542543.681787628</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -29970,7 +31382,7 @@
         <v>2542576.285287628</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -30003,7 +31415,7 @@
         <v>2542576.285287628</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -30036,7 +31448,7 @@
         <v>2541876.361987628</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -30069,7 +31481,7 @@
         <v>2541060.599287628</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -30102,7 +31514,7 @@
         <v>2544111.639268468</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -30135,7 +31547,7 @@
         <v>2545583.052368468</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -30168,7 +31580,7 @@
         <v>2545583.052368468</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -30201,7 +31613,7 @@
         <v>2545583.052368468</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -30234,7 +31646,7 @@
         <v>2546054.477068468</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -30267,7 +31679,7 @@
         <v>2546076.921068468</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -30300,7 +31712,7 @@
         <v>2544319.674868468</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30333,7 +31745,7 @@
         <v>2544461.729368468</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30366,7 +31778,7 @@
         <v>2543170.863068468</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30399,7 +31811,7 @@
         <v>2542452.349468468</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30432,7 +31844,7 @@
         <v>2542452.349468468</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30465,7 +31877,7 @@
         <v>2541961.652868468</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30498,7 +31910,7 @@
         <v>2542145.690462828</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30531,7 +31943,7 @@
         <v>2542782.747762828</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30564,7 +31976,7 @@
         <v>2542149.041362828</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30597,7 +32009,7 @@
         <v>2536041.912462828</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30630,7 +32042,7 @@
         <v>2536070.500862828</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30663,7 +32075,7 @@
         <v>2534498.341362828</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30696,7 +32108,7 @@
         <v>2535339.639762828</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30729,7 +32141,7 @@
         <v>2534801.352262828</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30762,7 +32174,7 @@
         <v>2534801.352262828</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30795,7 +32207,7 @@
         <v>2534902.968262828</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30828,7 +32240,7 @@
         <v>2534660.747762828</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30861,7 +32273,7 @@
         <v>2530974.396362828</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30894,7 +32306,7 @@
         <v>2529373.293562828</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30927,7 +32339,7 @@
         <v>2529542.141262828</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30960,7 +32372,7 @@
         <v>2520411.916862828</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30993,7 +32405,7 @@
         <v>2517127.234562828</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -31026,7 +32438,7 @@
         <v>2517621.515262828</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -31059,7 +32471,7 @@
         <v>2517818.910062828</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -31092,7 +32504,7 @@
         <v>2515524.967462827</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -31191,7 +32603,7 @@
         <v>2516685.243562828</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -31224,7 +32636,7 @@
         <v>2516905.052862828</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -31257,7 +32669,7 @@
         <v>2516583.012562828</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -31290,7 +32702,7 @@
         <v>2516685.219762828</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31323,7 +32735,7 @@
         <v>2516453.020762828</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -34359,7 +35771,7 @@
         <v>2513171.890942326</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -34425,7 +35837,7 @@
         <v>2514032.963342326</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -34458,7 +35870,7 @@
         <v>2518189.271742326</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -34491,7 +35903,7 @@
         <v>2518051.234742326</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -34524,7 +35936,7 @@
         <v>2516757.344542326</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -34557,7 +35969,7 @@
         <v>2517625.586342326</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -34755,7 +36167,7 @@
         <v>2516501.113942327</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
